--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D1BBC-11DF-4995-B128-3BE8065A91D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730494D-2EB6-4FA2-969A-79CB0F1CBA46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +704,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3">
+        <v>8</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>41</v>
       </c>
@@ -713,7 +716,9 @@
       <c r="N3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="P3" s="4" t="s">
         <v>41</v>
       </c>
@@ -1583,7 +1588,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
         <v>41</v>
@@ -1765,7 +1772,7 @@
       </c>
       <c r="K28">
         <f t="shared" ref="K28:K49" si="4">K3</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L28">
         <f t="shared" ref="L28:S28" si="5">IF(L3="+",$C$26,0)</f>
@@ -1781,7 +1788,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
         <f t="shared" si="5"/>
@@ -1808,7 +1815,7 @@
       </c>
       <c r="W28">
         <f t="shared" ref="W28:W49" si="7">SUM(C28:T28)*V28+U28</f>
-        <v>49.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -3614,7 +3621,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G49">
         <f t="shared" si="49"/>
@@ -3677,7 +3684,7 @@
       </c>
       <c r="W49">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -3723,11 +3730,11 @@
       </c>
       <c r="C53" s="6">
         <f t="shared" ref="C53:C74" si="52">ROUND(W28,0)</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D53" s="7" t="str">
         <f t="shared" ref="D53:D74" si="53">IF(C53&gt;=55,"Зачет","-")</f>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4101,7 +4108,7 @@
       </c>
       <c r="C74" s="6">
         <f t="shared" si="52"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D74" s="7" t="str">
         <f t="shared" si="53"/>

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730494D-2EB6-4FA2-969A-79CB0F1CBA46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0124044-7957-48A4-86DA-9BFE9E8C29AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,8 +862,12 @@
       <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
@@ -872,11 +876,15 @@
         <v>41</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
         <v>41</v>
@@ -885,7 +893,9 @@
         <v>41</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1554,16 +1564,24 @@
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2019,11 +2037,11 @@
       </c>
       <c r="F31">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G31">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H31">
         <f t="shared" si="12"/>
@@ -2047,7 +2065,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N31">
         <f t="shared" si="13"/>
@@ -2055,7 +2073,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
         <f t="shared" si="13"/>
@@ -2074,15 +2092,15 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>T6</f>
+        <v>5</v>
       </c>
       <c r="V31">
         <v>1</v>
       </c>
       <c r="W31">
-        <f t="shared" si="7"/>
-        <v>31.5</v>
+        <f>SUM(C31:T31)*V31+U31</f>
+        <v>54.5</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3528,7 +3546,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F48">
         <f t="shared" si="47"/>
@@ -3536,11 +3554,11 @@
       </c>
       <c r="G48">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H48">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I48">
         <f t="shared" si="47"/>
@@ -3560,7 +3578,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
         <f t="shared" si="48"/>
@@ -3595,7 +3613,7 @@
       </c>
       <c r="W48">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -3784,11 +3802,11 @@
       </c>
       <c r="C56" s="6">
         <f t="shared" si="52"/>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D56" s="7" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -4090,7 +4108,7 @@
       </c>
       <c r="C73" s="6">
         <f t="shared" si="52"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D73" s="7" t="str">
         <f t="shared" si="53"/>

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0124044-7957-48A4-86DA-9BFE9E8C29AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42241A18-CF30-4652-A4AD-F017600C6E21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,24 +1605,34 @@
       <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="L24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="P24" s="4" t="s">
         <v>41</v>
       </c>
@@ -3635,7 +3645,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F49">
         <f t="shared" si="49"/>
@@ -3643,7 +3653,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H49">
         <f t="shared" si="49"/>
@@ -3655,7 +3665,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
@@ -3667,7 +3677,7 @@
       </c>
       <c r="M49">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
         <f t="shared" si="50"/>
@@ -3675,7 +3685,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
         <f t="shared" si="50"/>
@@ -3702,7 +3712,7 @@
       </c>
       <c r="W49">
         <f t="shared" si="7"/>
-        <v>40.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4126,11 +4136,11 @@
       </c>
       <c r="C74" s="6">
         <f t="shared" si="52"/>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D74" s="7" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
   </sheetData>

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42241A18-CF30-4652-A4AD-F017600C6E21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA7A4C-3C79-4EEE-A361-B6CD815492FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:D74"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,8 +1576,12 @@
       <c r="H23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
         <v>41</v>
@@ -1585,12 +1589,16 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="R23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="T23" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -3572,11 +3580,11 @@
       </c>
       <c r="I48">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J48">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
@@ -3604,7 +3612,7 @@
       </c>
       <c r="Q48">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R48">
         <f t="shared" si="48"/>
@@ -3616,14 +3624,14 @@
       </c>
       <c r="T48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V48">
         <v>1</v>
       </c>
       <c r="W48">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4118,11 +4126,11 @@
       </c>
       <c r="C73" s="6">
         <f t="shared" si="52"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D73" s="7" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA7A4C-3C79-4EEE-A361-B6CD815492FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C83C91-E871-49BA-A4D2-CB0C1C3C9B7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Оценка</t>
+  </si>
+  <si>
+    <t>РК</t>
   </si>
 </sst>
 </file>
@@ -554,19 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -684,8 +688,9 @@
       <c r="T2" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -734,8 +739,9 @@
       <c r="T3" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -787,8 +793,9 @@
       <c r="T4" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -847,8 +854,9 @@
       <c r="T5" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -896,8 +904,9 @@
       <c r="T6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -943,8 +952,9 @@
       <c r="T7" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -963,10 +973,14 @@
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
         <v>41</v>
@@ -974,14 +988,17 @@
       <c r="N8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1033,8 +1050,9 @@
       <c r="T9" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1089,8 +1107,9 @@
       <c r="T10" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1130,8 +1149,9 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1184,8 +1204,9 @@
       <c r="T12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1225,8 +1246,9 @@
         <v>41</v>
       </c>
       <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1278,8 +1300,9 @@
       <c r="T14" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1303,8 +1326,9 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1328,8 +1352,9 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1386,8 +1411,9 @@
       <c r="T17" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1411,8 +1437,9 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1440,8 +1467,9 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1465,8 +1493,9 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1525,8 +1554,9 @@
       <c r="T21" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1550,8 +1580,9 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1599,8 +1630,9 @@
       <c r="T23" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1652,31 +1684,39 @@
         <v>41</v>
       </c>
       <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="U25" t="s">
+        <v>49</v>
+      </c>
+      <c r="V25" t="s">
         <v>43</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>45</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>4.5</v>
       </c>
       <c r="U26">
+        <f>C26*16</f>
+        <v>72</v>
+      </c>
+      <c r="V26">
         <v>8</v>
       </c>
-      <c r="W26">
-        <f>U26+16*C26+10+10</f>
+      <c r="X26">
+        <f>V26+16*C26+10+10</f>
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f>A2</f>
         <v>1</v>
@@ -1757,15 +1797,22 @@
         <f>T2</f>
         <v>10</v>
       </c>
+      <c r="U27">
+        <f>SUM(C27:J27,L27:S27)</f>
+        <v>67.5</v>
+      </c>
       <c r="V27">
+        <v>7</v>
+      </c>
+      <c r="W27">
         <v>1</v>
       </c>
-      <c r="W27">
-        <f>SUM(C27:T27)*V27+U27</f>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <f>SUM(C27:T27)*W27+V27</f>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" ref="A28:B49" si="2">A3</f>
         <v>2</v>
@@ -1846,15 +1893,22 @@
         <f t="shared" ref="T28:T49" si="6">T3</f>
         <v>9</v>
       </c>
+      <c r="U28">
+        <f t="shared" ref="U28:U49" si="7">SUM(C28:J28,L28:S28)</f>
+        <v>45</v>
+      </c>
       <c r="V28">
+        <v>8</v>
+      </c>
+      <c r="W28">
         <v>1</v>
       </c>
-      <c r="W28">
-        <f t="shared" ref="W28:W49" si="7">SUM(C28:T28)*V28+U28</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <f t="shared" ref="X28:X49" si="8">SUM(C28:T28)*W28+V28</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1864,35 +1918,35 @@
         <v>Давыдов Степан Евгеньевич</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:J29" si="8">IF(C4="+",$C$26,0)</f>
+        <f t="shared" ref="C29:J29" si="9">IF(C4="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="G29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="H29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="J29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="K29">
@@ -1900,50 +1954,57 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:S29" si="9">IF(L4="+",$C$26,0)</f>
+        <f t="shared" ref="L29:S29" si="10">IF(L4="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="N29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="O29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="S29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="T29">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>58.5</v>
+      </c>
       <c r="V29">
+        <v>8</v>
+      </c>
+      <c r="W29">
         <v>1</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="7"/>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <f t="shared" si="8"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1953,35 +2014,35 @@
         <v>Дога Дмитрий Вадимович</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:J30" si="10">IF(C5="+",$C$26,0)</f>
+        <f t="shared" ref="C30:J30" si="11">IF(C5="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="G30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="H30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="I30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="J30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="K30">
@@ -1989,50 +2050,57 @@
         <v>10</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:S30" si="11">IF(L5="+",$C$26,0)</f>
+        <f t="shared" ref="L30:S30" si="12">IF(L5="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="N30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="O30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="P30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="R30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="S30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>67.5</v>
+      </c>
       <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30">
         <v>1</v>
       </c>
-      <c r="W30">
-        <f t="shared" si="7"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <f t="shared" si="8"/>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2042,35 +2110,35 @@
         <v>Желудков Александр Сергеевич</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:J31" si="12">IF(C6="+",$C$26,0)</f>
+        <f t="shared" ref="C31:J31" si="13">IF(C6="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="G31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="H31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="I31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="K31">
@@ -2078,50 +2146,57 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:S31" si="13">IF(L6="+",$C$26,0)</f>
+        <f t="shared" ref="L31:S31" si="14">IF(L6="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="N31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="O31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="P31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="R31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="S31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T31">
         <f>T6</f>
         <v>5</v>
       </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>49.5</v>
+      </c>
       <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
         <v>1</v>
       </c>
-      <c r="W31">
-        <f>SUM(C31:T31)*V31+U31</f>
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X31">
+        <f>SUM(C31:T31)*W31+V31</f>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2131,35 +2206,35 @@
         <v>Колесова Милена Иннокентьевна</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:J32" si="14">IF(C7="+",$C$26,0)</f>
+        <f t="shared" ref="C32:J32" si="15">IF(C7="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="G32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="H32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -2167,50 +2242,57 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:S32" si="15">IF(L7="+",$C$26,0)</f>
+        <f t="shared" ref="L32:S32" si="16">IF(L7="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5</v>
       </c>
       <c r="O32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5</v>
       </c>
       <c r="S32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5</v>
       </c>
       <c r="T32">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
       <c r="V32">
+        <v>8</v>
+      </c>
+      <c r="W32">
         <v>1</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X32">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2220,86 +2302,93 @@
         <v>Крупиков Пётр Анатольевич</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:J33" si="16">IF(C8="+",$C$26,0)</f>
+        <f t="shared" ref="C33:J33" si="17">IF(C8="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5</v>
       </c>
       <c r="E33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5</v>
       </c>
       <c r="G33">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>4.5</v>
       </c>
       <c r="H33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>4.5</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:S33" si="17">IF(L8="+",$C$26,0)</f>
+        <f t="shared" ref="L33:S33" si="18">IF(L8="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.5</v>
       </c>
       <c r="N33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>4.5</v>
       </c>
       <c r="P33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>40.5</v>
+      </c>
       <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
         <v>1</v>
       </c>
-      <c r="W33">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X33">
+        <f t="shared" si="8"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2309,35 +2398,35 @@
         <v>Курицына Дарья Алексеевна</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:J34" si="18">IF(C9="+",$C$26,0)</f>
+        <f t="shared" ref="C34:J34" si="19">IF(C9="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="E34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="G34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="I34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="J34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="K34">
@@ -2345,50 +2434,57 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:S34" si="19">IF(L9="+",$C$26,0)</f>
+        <f t="shared" ref="L34:S34" si="20">IF(L9="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="N34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="O34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="P34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="S34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T34">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="U34">
+        <f t="shared" si="7"/>
+        <v>58.5</v>
+      </c>
       <c r="V34">
+        <v>8</v>
+      </c>
+      <c r="W34">
         <v>1</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="7"/>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X34">
+        <f t="shared" si="8"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2398,35 +2494,35 @@
         <v>Ли Алина Александровна</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:J35" si="20">IF(C10="+",$C$26,0)</f>
+        <f t="shared" ref="C35:J35" si="21">IF(C10="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5</v>
       </c>
       <c r="E35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5</v>
       </c>
       <c r="G35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5</v>
       </c>
       <c r="H35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5</v>
       </c>
       <c r="J35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5</v>
       </c>
       <c r="K35">
@@ -2434,50 +2530,57 @@
         <v>10</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:S35" si="21">IF(L10="+",$C$26,0)</f>
+        <f t="shared" ref="L35:S35" si="22">IF(L10="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.5</v>
       </c>
       <c r="O35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.5</v>
       </c>
       <c r="P35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.5</v>
       </c>
       <c r="R35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.5</v>
       </c>
       <c r="S35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.5</v>
       </c>
       <c r="T35">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
+      <c r="U35">
+        <f t="shared" si="7"/>
+        <v>58.5</v>
+      </c>
       <c r="V35">
+        <v>8</v>
+      </c>
+      <c r="W35">
         <v>0.9</v>
       </c>
-      <c r="W35">
-        <f t="shared" si="7"/>
-        <v>67.95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X35">
+        <f t="shared" si="8"/>
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2487,35 +2590,35 @@
         <v>Милованова Ольга Владимировна</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:J36" si="22">IF(C11="+",$C$26,0)</f>
+        <f t="shared" ref="C36:J36" si="23">IF(C11="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="G36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="J36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.5</v>
       </c>
       <c r="K36">
@@ -2523,50 +2626,57 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:S36" si="23">IF(L11="+",$C$26,0)</f>
+        <f t="shared" ref="L36:S36" si="24">IF(L11="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.5</v>
       </c>
       <c r="N36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.5</v>
       </c>
       <c r="P36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.5</v>
       </c>
       <c r="R36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
+      <c r="U36">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V36">
+        <v>8</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2576,35 +2686,35 @@
         <v>Нгуен Тхань Хоа -</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:J37" si="24">IF(C12="+",$C$26,0)</f>
+        <f t="shared" ref="C37:J37" si="25">IF(C12="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="G37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="H37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="I37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="K37">
@@ -2612,50 +2722,57 @@
         <v>5</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37:S37" si="25">IF(L12="+",$C$26,0)</f>
+        <f t="shared" ref="L37:S37" si="26">IF(L12="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="N37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="O37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="P37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="R37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="S37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="T37">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="U37">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
       <c r="V37">
+        <v>8</v>
+      </c>
+      <c r="W37">
         <v>1</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X37">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2665,35 +2782,35 @@
         <v>Петрукович Арсений Сергеевич</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:J38" si="26">IF(C13="+",$C$26,0)</f>
+        <f t="shared" ref="C38:J38" si="27">IF(C13="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.5</v>
       </c>
       <c r="E38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.5</v>
       </c>
       <c r="H38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.5</v>
       </c>
       <c r="J38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K38">
@@ -2701,50 +2818,57 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:S38" si="27">IF(L13="+",$C$26,0)</f>
+        <f t="shared" ref="L38:S38" si="28">IF(L13="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.5</v>
       </c>
       <c r="O38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.5</v>
       </c>
       <c r="T38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
+      <c r="U38">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2754,35 +2878,35 @@
         <v>Платонова Александра Борисовна</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:J39" si="28">IF(C14="+",$C$26,0)</f>
+        <f t="shared" ref="C39:J39" si="29">IF(C14="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="F39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="G39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="H39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="I39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K39">
@@ -2790,50 +2914,57 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:S39" si="29">IF(L14="+",$C$26,0)</f>
+        <f t="shared" ref="L39:S39" si="30">IF(L14="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="N39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="P39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="R39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="S39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="T39">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="U39">
+        <f t="shared" si="7"/>
+        <v>58.5</v>
+      </c>
       <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
         <v>1</v>
       </c>
-      <c r="W39">
-        <f t="shared" si="7"/>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X39">
+        <f t="shared" si="8"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2843,35 +2974,35 @@
         <v>Потапов Денис Витальевич</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:J40" si="30">IF(C15="+",$C$26,0)</f>
+        <f t="shared" ref="C40:J40" si="31">IF(C15="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K40">
@@ -2879,50 +3010,54 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40:S40" si="31">IF(L15="+",$C$26,0)</f>
+        <f t="shared" ref="L40:S40" si="32">IF(L15="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V40">
+      <c r="U40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>1</v>
       </c>
-      <c r="W40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2932,35 +3067,35 @@
         <v>Саматов Темиржан -</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:J41" si="32">IF(C16="+",$C$26,0)</f>
+        <f t="shared" ref="C41:J41" si="33">IF(C16="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K41">
@@ -2968,50 +3103,54 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41:S41" si="33">IF(L16="+",$C$26,0)</f>
+        <f t="shared" ref="L41:S41" si="34">IF(L16="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="U41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
         <v>1</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3021,35 +3160,35 @@
         <v>Стребков Евгений Александрович</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:J42" si="34">IF(C17="+",$C$26,0)</f>
+        <f t="shared" ref="C42:J42" si="35">IF(C17="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="E42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="G42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="H42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="I42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="J42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="K42">
@@ -3057,50 +3196,57 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:S42" si="35">IF(L17="+",$C$26,0)</f>
+        <f t="shared" ref="L42:S42" si="36">IF(L17="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="N42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="O42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="P42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="R42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="S42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="T42">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="U42">
+        <f t="shared" si="7"/>
+        <v>67.5</v>
+      </c>
       <c r="V42">
+        <v>8</v>
+      </c>
+      <c r="W42">
         <v>0.9</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="7"/>
-        <v>69.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X42">
+        <f t="shared" si="8"/>
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -3110,35 +3256,35 @@
         <v>Тарандо Александр Станиславович</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:J43" si="36">IF(C18="+",$C$26,0)</f>
+        <f t="shared" ref="C43:J43" si="37">IF(C18="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K43">
@@ -3146,50 +3292,57 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:S43" si="37">IF(L18="+",$C$26,0)</f>
+        <f t="shared" ref="L43:S43" si="38">IF(L18="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="U43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>1</v>
       </c>
-      <c r="W43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -3199,35 +3352,35 @@
         <v>Файзуллина Алина Маратовна</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:J44" si="38">IF(C19="+",$C$26,0)</f>
+        <f t="shared" ref="C44:J44" si="39">IF(C19="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="E44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K44">
@@ -3235,50 +3388,57 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:S44" si="39">IF(L19="+",$C$26,0)</f>
+        <f t="shared" ref="L44:S44" si="40">IF(L19="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
+      <c r="U44">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V44">
+        <v>7</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3288,35 +3448,35 @@
         <v>Федина Александра Евгеньевна</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:J45" si="40">IF(C20="+",$C$26,0)</f>
+        <f t="shared" ref="C45:J45" si="41">IF(C20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K45">
@@ -3324,50 +3484,57 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:S45" si="41">IF(L20="+",$C$26,0)</f>
+        <f t="shared" ref="L45:S45" si="42">IF(L20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="U45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="V45">
         <v>1</v>
       </c>
       <c r="W45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -3377,35 +3544,35 @@
         <v>Филимонов Михаил Андреевич</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:J46" si="42">IF(C21="+",$C$26,0)</f>
+        <f t="shared" ref="C46:J46" si="43">IF(C21="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="G46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="H46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="I46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="J46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="K46">
@@ -3413,88 +3580,95 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:S46" si="43">IF(L21="+",$C$26,0)</f>
+        <f t="shared" ref="L46:S46" si="44">IF(L21="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="N46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="O46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="P46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="R46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="S46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="T46">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="U46">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
       <c r="V46">
+        <v>7</v>
+      </c>
+      <c r="W46">
         <v>0.83</v>
       </c>
-      <c r="W46">
-        <f t="shared" si="7"/>
-        <v>68.06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X46">
+        <f t="shared" si="8"/>
+        <v>75.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f>A22</f>
         <v>21</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f t="shared" ref="B47:B49" si="44">B22</f>
+        <f t="shared" ref="B47:B49" si="45">B22</f>
         <v>Шамшура Мария Алексеевна</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:J47" si="45">IF(C22="+",$C$26,0)</f>
+        <f t="shared" ref="C47:J47" si="46">IF(C22="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K47">
@@ -3502,88 +3676,92 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47:S47" si="46">IF(L22="+",$C$26,0)</f>
+        <f t="shared" ref="L47:S47" si="47">IF(L22="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V47">
+      <c r="U47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
         <v>1</v>
       </c>
-      <c r="W47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>Шевцов Владислав Витальевич</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:J48" si="47">IF(C23="+",$C$26,0)</f>
+        <f t="shared" ref="C48:J48" si="48">IF(C23="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.5</v>
       </c>
       <c r="E48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.5</v>
       </c>
       <c r="F48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.5</v>
       </c>
       <c r="H48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.5</v>
       </c>
       <c r="I48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.5</v>
       </c>
       <c r="J48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.5</v>
       </c>
       <c r="K48">
@@ -3591,88 +3769,95 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:S48" si="48">IF(L23="+",$C$26,0)</f>
+        <f t="shared" ref="L48:S48" si="49">IF(L23="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="N48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="R48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="S48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T48">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="U48">
+        <f t="shared" si="7"/>
+        <v>49.5</v>
+      </c>
       <c r="V48">
+        <v>8</v>
+      </c>
+      <c r="W48">
         <v>1</v>
       </c>
-      <c r="W48">
-        <f t="shared" si="7"/>
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X48">
+        <f t="shared" si="8"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>Ябжанов Аян Валерьевич</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:J49" si="49">IF(C24="+",$C$26,0)</f>
+        <f t="shared" ref="C49:J49" si="50">IF(C24="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="E49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="F49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="G49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="H49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="I49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="K49">
@@ -3680,50 +3865,57 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:S49" si="50">IF(L24="+",$C$26,0)</f>
+        <f t="shared" ref="L49:S49" si="51">IF(L24="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="N49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="P49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="S49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="T49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
+      <c r="U49">
         <f t="shared" si="7"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>0</v>
       </c>
@@ -3737,7 +3929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <f>A27</f>
         <v>1</v>
@@ -3747,407 +3939,407 @@
         <v>Блинова Анна Алексеевна</v>
       </c>
       <c r="C52" s="6">
-        <f>ROUND(W27,0)</f>
-        <v>78</v>
+        <f>ROUND(X27,0)</f>
+        <v>85</v>
       </c>
       <c r="D52" s="7" t="str">
         <f>IF(C52&gt;=55,"Зачет","-")</f>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <f t="shared" ref="A53:B53" si="51">A28</f>
+        <f t="shared" ref="A53:B53" si="52">A28</f>
         <v>2</v>
       </c>
       <c r="B53" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Булах Влада Александровна</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" ref="C53:C74" si="52">ROUND(W28,0)</f>
-        <v>62</v>
+        <f t="shared" ref="C53:C74" si="53">ROUND(X28,0)</f>
+        <v>70</v>
       </c>
       <c r="D53" s="7" t="str">
-        <f t="shared" ref="D53:D74" si="53">IF(C53&gt;=55,"Зачет","-")</f>
+        <f t="shared" ref="D53:D74" si="54">IF(C53&gt;=55,"Зачет","-")</f>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <f t="shared" ref="A54:B54" si="54">A29</f>
+        <f t="shared" ref="A54:B54" si="55">A29</f>
         <v>3</v>
       </c>
       <c r="B54" s="5" t="str">
+        <f t="shared" si="55"/>
+        <v>Давыдов Степан Евгеньевич</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="53"/>
+        <v>77</v>
+      </c>
+      <c r="D54" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>Давыдов Степан Евгеньевич</v>
-      </c>
-      <c r="C54" s="6">
-        <f t="shared" si="52"/>
-        <v>69</v>
-      </c>
-      <c r="D54" s="7" t="str">
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <f t="shared" ref="A55:B55" si="56">A30</f>
+        <v>4</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f t="shared" si="56"/>
+        <v>Дога Дмитрий Вадимович</v>
+      </c>
+      <c r="C55" s="6">
         <f t="shared" si="53"/>
+        <v>95</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <f t="shared" ref="A55:B55" si="55">A30</f>
-        <v>4</v>
-      </c>
-      <c r="B55" s="5" t="str">
-        <f t="shared" si="55"/>
-        <v>Дога Дмитрий Вадимович</v>
-      </c>
-      <c r="C55" s="6">
-        <f t="shared" si="52"/>
-        <v>88</v>
-      </c>
-      <c r="D55" s="7" t="str">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <f t="shared" ref="A56:B56" si="57">A31</f>
+        <v>5</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f t="shared" si="57"/>
+        <v>Желудков Александр Сергеевич</v>
+      </c>
+      <c r="C56" s="6">
         <f t="shared" si="53"/>
+        <v>61</v>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <f t="shared" ref="A56:B56" si="56">A31</f>
-        <v>5</v>
-      </c>
-      <c r="B56" s="5" t="str">
-        <f t="shared" si="56"/>
-        <v>Желудков Александр Сергеевич</v>
-      </c>
-      <c r="C56" s="6">
-        <f t="shared" si="52"/>
-        <v>55</v>
-      </c>
-      <c r="D56" s="7" t="str">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <f t="shared" ref="A57:B57" si="58">A32</f>
+        <v>6</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f t="shared" si="58"/>
+        <v>Колесова Милена Иннокентьевна</v>
+      </c>
+      <c r="C57" s="6">
         <f t="shared" si="53"/>
+        <v>63</v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <f t="shared" ref="A57:B57" si="57">A32</f>
-        <v>6</v>
-      </c>
-      <c r="B57" s="5" t="str">
-        <f t="shared" si="57"/>
-        <v>Колесова Милена Иннокентьевна</v>
-      </c>
-      <c r="C57" s="6">
-        <f t="shared" si="52"/>
-        <v>55</v>
-      </c>
-      <c r="D57" s="7" t="str">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <f t="shared" ref="A58:B58" si="59">A33</f>
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f t="shared" si="59"/>
+        <v>Крупиков Пётр Анатольевич</v>
+      </c>
+      <c r="C58" s="6">
         <f t="shared" si="53"/>
+        <v>43</v>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f t="shared" si="54"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <f t="shared" ref="A59:B59" si="60">A34</f>
+        <v>8</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f t="shared" si="60"/>
+        <v>Курицына Дарья Алексеевна</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="53"/>
+        <v>77</v>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <f t="shared" ref="A58:B58" si="58">A33</f>
-        <v>7</v>
-      </c>
-      <c r="B58" s="5" t="str">
-        <f t="shared" si="58"/>
-        <v>Крупиков Пётр Анатольевич</v>
-      </c>
-      <c r="C58" s="6">
-        <f t="shared" si="52"/>
-        <v>27</v>
-      </c>
-      <c r="D58" s="7" t="str">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <f t="shared" ref="A60:B60" si="61">A35</f>
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f t="shared" si="61"/>
+        <v>Ли Алина Александровна</v>
+      </c>
+      <c r="C60" s="6">
         <f t="shared" si="53"/>
+        <v>76</v>
+      </c>
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="54"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <f t="shared" ref="A61:B61" si="62">A36</f>
+        <v>10</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f t="shared" si="62"/>
+        <v>Милованова Ольга Владимировна</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="53"/>
+        <v>44</v>
+      </c>
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <f t="shared" ref="A59:B59" si="59">A34</f>
-        <v>8</v>
-      </c>
-      <c r="B59" s="5" t="str">
-        <f t="shared" si="59"/>
-        <v>Курицына Дарья Алексеевна</v>
-      </c>
-      <c r="C59" s="6">
-        <f t="shared" si="52"/>
-        <v>69</v>
-      </c>
-      <c r="D59" s="7" t="str">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <f t="shared" ref="A62:B62" si="63">A37</f>
+        <v>11</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f t="shared" si="63"/>
+        <v>Нгуен Тхань Хоа -</v>
+      </c>
+      <c r="C62" s="6">
         <f t="shared" si="53"/>
+        <v>72</v>
+      </c>
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <f t="shared" ref="A60:B60" si="60">A35</f>
-        <v>9</v>
-      </c>
-      <c r="B60" s="5" t="str">
-        <f t="shared" si="60"/>
-        <v>Ли Алина Александровна</v>
-      </c>
-      <c r="C60" s="6">
-        <f t="shared" si="52"/>
-        <v>68</v>
-      </c>
-      <c r="D60" s="7" t="str">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <f t="shared" ref="A63:B63" si="64">A38</f>
+        <v>12</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f t="shared" si="64"/>
+        <v>Петрукович Арсений Сергеевич</v>
+      </c>
+      <c r="C63" s="6">
         <f t="shared" si="53"/>
-        <v>Зачет</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <f t="shared" ref="A61:B61" si="61">A36</f>
-        <v>10</v>
-      </c>
-      <c r="B61" s="5" t="str">
-        <f t="shared" si="61"/>
-        <v>Милованова Ольга Владимировна</v>
-      </c>
-      <c r="C61" s="6">
-        <f t="shared" si="52"/>
-        <v>36</v>
-      </c>
-      <c r="D61" s="7" t="str">
+        <v>43</v>
+      </c>
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="54"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <f t="shared" ref="A64:B64" si="65">A39</f>
+        <v>13</v>
+      </c>
+      <c r="B64" s="5" t="str">
+        <f t="shared" si="65"/>
+        <v>Платонова Александра Борисовна</v>
+      </c>
+      <c r="C64" s="6">
         <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <f t="shared" ref="A62:B62" si="62">A37</f>
-        <v>11</v>
-      </c>
-      <c r="B62" s="5" t="str">
-        <f t="shared" si="62"/>
-        <v>Нгуен Тхань Хоа -</v>
-      </c>
-      <c r="C62" s="6">
-        <f t="shared" si="52"/>
-        <v>64</v>
-      </c>
-      <c r="D62" s="7" t="str">
-        <f t="shared" si="53"/>
-        <v>Зачет</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <f t="shared" ref="A63:B63" si="63">A38</f>
-        <v>12</v>
-      </c>
-      <c r="B63" s="5" t="str">
-        <f t="shared" si="63"/>
-        <v>Петрукович Арсений Сергеевич</v>
-      </c>
-      <c r="C63" s="6">
-        <f t="shared" si="52"/>
-        <v>36</v>
-      </c>
-      <c r="D63" s="7" t="str">
-        <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <f t="shared" ref="A64:B64" si="64">A39</f>
-        <v>13</v>
-      </c>
-      <c r="B64" s="5" t="str">
-        <f t="shared" si="64"/>
-        <v>Платонова Александра Борисовна</v>
-      </c>
-      <c r="C64" s="6">
-        <f t="shared" si="52"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D64" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <f t="shared" ref="A65:B65" si="65">A40</f>
+        <f t="shared" ref="A65:B65" si="66">A40</f>
         <v>14</v>
       </c>
       <c r="B65" s="5" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>Потапов Денис Витальевич</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D65" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <f t="shared" ref="A66:B66" si="66">A41</f>
+        <f t="shared" ref="A66:B66" si="67">A41</f>
         <v>15</v>
       </c>
       <c r="B66" s="5" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Саматов Темиржан -</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D66" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <f t="shared" ref="A67:B67" si="67">A42</f>
+        <f t="shared" ref="A67:B67" si="68">A42</f>
         <v>16</v>
       </c>
       <c r="B67" s="5" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>Стребков Евгений Александрович</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" si="52"/>
-        <v>70</v>
+        <f t="shared" si="53"/>
+        <v>78</v>
       </c>
       <c r="D67" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <f t="shared" ref="A68:B68" si="68">A43</f>
+        <f t="shared" ref="A68:B68" si="69">A43</f>
         <v>17</v>
       </c>
       <c r="B68" s="5" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>Тарандо Александр Станиславович</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D68" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <f t="shared" ref="A69:B69" si="69">A44</f>
+        <f t="shared" ref="A69:B69" si="70">A44</f>
         <v>18</v>
       </c>
       <c r="B69" s="5" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>Файзуллина Алина Маратовна</v>
       </c>
       <c r="C69" s="6">
-        <f t="shared" si="52"/>
-        <v>9</v>
+        <f t="shared" si="53"/>
+        <v>16</v>
       </c>
       <c r="D69" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <f t="shared" ref="A70:B70" si="70">A45</f>
+        <f t="shared" ref="A70:B70" si="71">A45</f>
         <v>19</v>
       </c>
       <c r="B70" s="5" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Федина Александра Евгеньевна</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>1</v>
       </c>
       <c r="D70" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <f t="shared" ref="A71:B71" si="71">A46</f>
+        <f t="shared" ref="A71:B71" si="72">A46</f>
         <v>20</v>
       </c>
       <c r="B71" s="5" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>Филимонов Михаил Андреевич</v>
       </c>
       <c r="C71" s="6">
-        <f t="shared" si="52"/>
-        <v>68</v>
+        <f t="shared" si="53"/>
+        <v>75</v>
       </c>
       <c r="D71" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <f t="shared" ref="A72:B72" si="72">A47</f>
+        <f t="shared" ref="A72:B72" si="73">A47</f>
         <v>21</v>
       </c>
       <c r="B72" s="5" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Шамшура Мария Алексеевна</v>
       </c>
       <c r="C72" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D72" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <f t="shared" ref="A73:B73" si="73">A48</f>
+        <f t="shared" ref="A73:B73" si="74">A48</f>
         <v>22</v>
       </c>
       <c r="B73" s="5" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Шевцов Владислав Витальевич</v>
       </c>
       <c r="C73" s="6">
-        <f t="shared" si="52"/>
-        <v>55</v>
+        <f t="shared" si="53"/>
+        <v>63</v>
       </c>
       <c r="D73" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <f t="shared" ref="A74:B74" si="74">A49</f>
+        <f t="shared" ref="A74:B74" si="75">A49</f>
         <v>23</v>
       </c>
       <c r="B74" s="5" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Ябжанов Аян Валерьевич</v>
       </c>
       <c r="C74" s="6">
-        <f t="shared" si="52"/>
-        <v>63</v>
+        <f t="shared" si="53"/>
+        <v>65</v>
       </c>
       <c r="D74" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C83C91-E871-49BA-A4D2-CB0C1C3C9B7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38E63F-FF07-494D-BE4A-A7309FD8C70A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1119,9 @@
       <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
         <v>41</v>
@@ -1131,6 +1133,9 @@
       </c>
       <c r="J11" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>41</v>
@@ -1457,16 +1462,34 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="4">
+        <v>10</v>
+      </c>
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
@@ -1552,7 +1575,7 @@
         <v>41</v>
       </c>
       <c r="T21" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U21" s="4"/>
     </row>
@@ -2595,7 +2618,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E36">
         <f t="shared" si="23"/>
@@ -2623,7 +2646,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <f t="shared" ref="L36:S36" si="24">IF(L11="+",$C$26,0)</f>
@@ -2663,17 +2686,17 @@
       </c>
       <c r="U36">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>40.5</v>
       </c>
       <c r="V36">
         <v>8</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="X36">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
@@ -3381,61 +3404,61 @@
       </c>
       <c r="J44">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:S44" si="40">IF(L19="+",$C$26,0)</f>
-        <v>0</v>
+        <f t="shared" ref="L44" si="40">IF(L19="+",$C$26,0)</f>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f>IF(M19="+",$C$26,0)</f>
+        <v>4.5</v>
       </c>
       <c r="N44">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f>IF(N19="+",$C$26,0)</f>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f>IF(O19="+",$C$26,0)</f>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f>IF(P19="+",$C$26,0)</f>
+        <v>4.5</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f>IF(Q19="+",$C$26,0)</f>
+        <v>4.5</v>
       </c>
       <c r="R44">
-        <f t="shared" si="40"/>
+        <f>IF(R19="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f>IF(S19="+",$C$26,0)</f>
+        <v>4.5</v>
       </c>
       <c r="T44">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>T19</f>
+        <v>10</v>
       </c>
       <c r="U44">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="V44">
         <v>7</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X44">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f>SUM(C44:T44)*W44+V44</f>
+        <v>34.5</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -3488,35 +3511,35 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="42"/>
+        <f>IF(M20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="42"/>
+        <f>IF(N20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="42"/>
+        <f>IF(O20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" si="42"/>
+        <f>IF(P20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="42"/>
+        <f>IF(Q20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="42"/>
+        <f>IF(R20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="42"/>
+        <f>IF(S20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="6"/>
+        <f>T20</f>
         <v>0</v>
       </c>
       <c r="U45">
@@ -3613,7 +3636,7 @@
       </c>
       <c r="T46">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U46">
         <f t="shared" si="7"/>
@@ -3627,7 +3650,7 @@
       </c>
       <c r="X46">
         <f t="shared" si="8"/>
-        <v>75.06</v>
+        <v>70.91</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
@@ -4102,11 +4125,11 @@
       </c>
       <c r="C61" s="6">
         <f t="shared" si="53"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D61" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
@@ -4245,8 +4268,8 @@
         <v>Файзуллина Алина Маратовна</v>
       </c>
       <c r="C69" s="6">
-        <f t="shared" si="53"/>
-        <v>16</v>
+        <f>ROUND(X44,0)</f>
+        <v>35</v>
       </c>
       <c r="D69" s="7" t="str">
         <f t="shared" si="54"/>
@@ -4282,7 +4305,7 @@
       </c>
       <c r="C71" s="6">
         <f t="shared" si="53"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D71" s="7" t="str">
         <f t="shared" si="54"/>

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38E63F-FF07-494D-BE4A-A7309FD8C70A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C63A6-7350-418B-A18C-FA08F09883E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,13 +1457,24 @@
       <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J19" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>41</v>
@@ -3265,7 +3276,7 @@
         <v>0.9</v>
       </c>
       <c r="X42">
-        <f t="shared" si="8"/>
+        <f>SUM(C42:T42)*W42+V42</f>
         <v>77.75</v>
       </c>
     </row>
@@ -3384,15 +3395,15 @@
       </c>
       <c r="E44">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F44">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G44">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H44">
         <f t="shared" si="39"/>
@@ -3400,7 +3411,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J44">
         <f t="shared" si="39"/>
@@ -3408,38 +3419,38 @@
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L44">
         <f t="shared" ref="L44" si="40">IF(L19="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M44">
-        <f>IF(M19="+",$C$26,0)</f>
+        <f t="shared" ref="M44:S45" si="41">IF(M19="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="N44">
-        <f>IF(N19="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="O44">
-        <f>IF(O19="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="P44">
-        <f>IF(P19="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="Q44">
-        <f>IF(Q19="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="R44">
-        <f>IF(R19="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>IF(S19="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="T44">
@@ -3447,18 +3458,18 @@
         <v>10</v>
       </c>
       <c r="U44">
-        <f t="shared" si="7"/>
-        <v>45</v>
+        <f>SUM(C44:J44,L44:S44)</f>
+        <v>63</v>
       </c>
       <c r="V44">
         <v>7</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="X44">
         <f>SUM(C44:T44)*W44+V44</f>
-        <v>34.5</v>
+        <v>55.033000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -3471,35 +3482,35 @@
         <v>Федина Александра Евгеньевна</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:J45" si="41">IF(C20="+",$C$26,0)</f>
+        <f t="shared" ref="C45:J45" si="42">IF(C20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K45">
@@ -3507,35 +3518,35 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:S45" si="42">IF(L20="+",$C$26,0)</f>
+        <f t="shared" ref="L45" si="43">IF(L20="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>IF(M20="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>IF(N20="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>IF(O20="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f>IF(P20="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f>IF(Q20="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f>IF(R20="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>IF(S20="+",$C$26,0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T45">
@@ -3567,35 +3578,35 @@
         <v>Филимонов Михаил Андреевич</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:J46" si="43">IF(C21="+",$C$26,0)</f>
+        <f t="shared" ref="C46:J46" si="44">IF(C21="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="G46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="H46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="I46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="J46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="K46">
@@ -3603,35 +3614,35 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:S46" si="44">IF(L21="+",$C$26,0)</f>
+        <f t="shared" ref="L46:S46" si="45">IF(L21="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="N46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="O46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="P46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="R46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="S46">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="T46">
@@ -3659,39 +3670,39 @@
         <v>21</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f t="shared" ref="B47:B49" si="45">B22</f>
+        <f t="shared" ref="B47:B49" si="46">B22</f>
         <v>Шамшура Мария Алексеевна</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:J47" si="46">IF(C22="+",$C$26,0)</f>
+        <f t="shared" ref="C47:J47" si="47">IF(C22="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K47">
@@ -3699,35 +3710,35 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47:S47" si="47">IF(L22="+",$C$26,0)</f>
+        <f t="shared" ref="L47:S47" si="48">IF(L22="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T47">
@@ -3752,39 +3763,39 @@
         <v>22</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>Шевцов Владислав Витальевич</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:J48" si="48">IF(C23="+",$C$26,0)</f>
+        <f t="shared" ref="C48:J48" si="49">IF(C23="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="E48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="F48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="H48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="I48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="J48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.5</v>
       </c>
       <c r="K48">
@@ -3792,35 +3803,35 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:S48" si="49">IF(L23="+",$C$26,0)</f>
+        <f t="shared" ref="L48:S48" si="50">IF(L23="+",$C$26,0)</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="N48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="R48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.5</v>
       </c>
       <c r="S48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T48">
@@ -3848,39 +3859,39 @@
         <v>23</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>Ябжанов Аян Валерьевич</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:J49" si="50">IF(C24="+",$C$26,0)</f>
+        <f t="shared" ref="C49:J49" si="51">IF(C24="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="D49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="E49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="F49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="G49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="H49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="I49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.5</v>
       </c>
       <c r="K49">
@@ -3888,35 +3899,35 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:S49" si="51">IF(L24="+",$C$26,0)</f>
+        <f t="shared" ref="L49:S49" si="52">IF(L24="+",$C$26,0)</f>
         <v>4.5</v>
       </c>
       <c r="M49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.5</v>
       </c>
       <c r="N49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.5</v>
       </c>
       <c r="P49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.5</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.5</v>
       </c>
       <c r="S49">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.5</v>
       </c>
       <c r="T49">
@@ -3972,397 +3983,397 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <f t="shared" ref="A53:B53" si="52">A28</f>
+        <f t="shared" ref="A53:B53" si="53">A28</f>
         <v>2</v>
       </c>
       <c r="B53" s="5" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Булах Влада Александровна</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" ref="C53:C74" si="53">ROUND(X28,0)</f>
+        <f t="shared" ref="C53:C74" si="54">ROUND(X28,0)</f>
         <v>70</v>
       </c>
       <c r="D53" s="7" t="str">
-        <f t="shared" ref="D53:D74" si="54">IF(C53&gt;=55,"Зачет","-")</f>
+        <f t="shared" ref="D53:D74" si="55">IF(C53&gt;=55,"Зачет","-")</f>
         <v>Зачет</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <f t="shared" ref="A54:B54" si="55">A29</f>
+        <f t="shared" ref="A54:B54" si="56">A29</f>
         <v>3</v>
       </c>
       <c r="B54" s="5" t="str">
+        <f t="shared" si="56"/>
+        <v>Давыдов Степан Евгеньевич</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="54"/>
+        <v>77</v>
+      </c>
+      <c r="D54" s="7" t="str">
         <f t="shared" si="55"/>
-        <v>Давыдов Степан Евгеньевич</v>
-      </c>
-      <c r="C54" s="6">
-        <f t="shared" si="53"/>
-        <v>77</v>
-      </c>
-      <c r="D54" s="7" t="str">
-        <f t="shared" si="54"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <f t="shared" ref="A55:B55" si="56">A30</f>
+        <f t="shared" ref="A55:B55" si="57">A30</f>
         <v>4</v>
       </c>
       <c r="B55" s="5" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Дога Дмитрий Вадимович</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>95</v>
       </c>
       <c r="D55" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <f t="shared" ref="A56:B56" si="57">A31</f>
+        <f t="shared" ref="A56:B56" si="58">A31</f>
         <v>5</v>
       </c>
       <c r="B56" s="5" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>Желудков Александр Сергеевич</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>61</v>
       </c>
       <c r="D56" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <f t="shared" ref="A57:B57" si="58">A32</f>
+        <f t="shared" ref="A57:B57" si="59">A32</f>
         <v>6</v>
       </c>
       <c r="B57" s="5" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>Колесова Милена Иннокентьевна</v>
       </c>
       <c r="C57" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>63</v>
       </c>
       <c r="D57" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <f t="shared" ref="A58:B58" si="59">A33</f>
+        <f t="shared" ref="A58:B58" si="60">A33</f>
         <v>7</v>
       </c>
       <c r="B58" s="5" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>Крупиков Пётр Анатольевич</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43</v>
       </c>
       <c r="D58" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <f t="shared" ref="A59:B59" si="60">A34</f>
+        <f t="shared" ref="A59:B59" si="61">A34</f>
         <v>8</v>
       </c>
       <c r="B59" s="5" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>Курицына Дарья Алексеевна</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>77</v>
       </c>
       <c r="D59" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <f t="shared" ref="A60:B60" si="61">A35</f>
+        <f t="shared" ref="A60:B60" si="62">A35</f>
         <v>9</v>
       </c>
       <c r="B60" s="5" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Ли Алина Александровна</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>76</v>
       </c>
       <c r="D60" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <f t="shared" ref="A61:B61" si="62">A36</f>
+        <f t="shared" ref="A61:B61" si="63">A36</f>
         <v>10</v>
       </c>
       <c r="B61" s="5" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>Милованова Ольга Владимировна</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>55</v>
       </c>
       <c r="D61" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
-        <f t="shared" ref="A62:B62" si="63">A37</f>
+        <f t="shared" ref="A62:B62" si="64">A37</f>
         <v>11</v>
       </c>
       <c r="B62" s="5" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>Нгуен Тхань Хоа -</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>72</v>
       </c>
       <c r="D62" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <f t="shared" ref="A63:B63" si="64">A38</f>
+        <f t="shared" ref="A63:B63" si="65">A38</f>
         <v>12</v>
       </c>
       <c r="B63" s="5" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>Петрукович Арсений Сергеевич</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43</v>
       </c>
       <c r="D63" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <f t="shared" ref="A64:B64" si="65">A39</f>
+        <f t="shared" ref="A64:B64" si="66">A39</f>
         <v>13</v>
       </c>
       <c r="B64" s="5" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>Платонова Александра Борисовна</v>
       </c>
       <c r="C64" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>73</v>
       </c>
       <c r="D64" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <f t="shared" ref="A65:B65" si="66">A40</f>
+        <f t="shared" ref="A65:B65" si="67">A40</f>
         <v>14</v>
       </c>
       <c r="B65" s="5" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Потапов Денис Витальевич</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="D65" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
-        <f t="shared" ref="A66:B66" si="67">A41</f>
+        <f t="shared" ref="A66:B66" si="68">A41</f>
         <v>15</v>
       </c>
       <c r="B66" s="5" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>Саматов Темиржан -</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="D66" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <f t="shared" ref="A67:B67" si="68">A42</f>
+        <f t="shared" ref="A67:B67" si="69">A42</f>
         <v>16</v>
       </c>
       <c r="B67" s="5" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>Стребков Евгений Александрович</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>78</v>
       </c>
       <c r="D67" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
-        <f t="shared" ref="A68:B68" si="69">A43</f>
+        <f t="shared" ref="A68:B68" si="70">A43</f>
         <v>17</v>
       </c>
       <c r="B68" s="5" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>Тарандо Александр Станиславович</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="D68" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <f t="shared" ref="A69:B69" si="70">A44</f>
+        <f t="shared" ref="A69:B69" si="71">A44</f>
         <v>18</v>
       </c>
       <c r="B69" s="5" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Файзуллина Алина Маратовна</v>
       </c>
       <c r="C69" s="6">
         <f>ROUND(X44,0)</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D69" s="7" t="str">
-        <f t="shared" si="54"/>
-        <v>-</v>
+        <f t="shared" si="55"/>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
-        <f t="shared" ref="A70:B70" si="71">A45</f>
+        <f t="shared" ref="A70:B70" si="72">A45</f>
         <v>19</v>
       </c>
       <c r="B70" s="5" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>Федина Александра Евгеньевна</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="D70" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <f t="shared" ref="A71:B71" si="72">A46</f>
+        <f t="shared" ref="A71:B71" si="73">A46</f>
         <v>20</v>
       </c>
       <c r="B71" s="5" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Филимонов Михаил Андреевич</v>
       </c>
       <c r="C71" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>71</v>
       </c>
       <c r="D71" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <f t="shared" ref="A72:B72" si="73">A47</f>
+        <f t="shared" ref="A72:B72" si="74">A47</f>
         <v>21</v>
       </c>
       <c r="B72" s="5" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Шамшура Мария Алексеевна</v>
       </c>
       <c r="C72" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="D72" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <f t="shared" ref="A73:B73" si="74">A48</f>
+        <f t="shared" ref="A73:B73" si="75">A48</f>
         <v>22</v>
       </c>
       <c r="B73" s="5" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Шевцов Владислав Витальевич</v>
       </c>
       <c r="C73" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>63</v>
       </c>
       <c r="D73" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
-        <f t="shared" ref="A74:B74" si="75">A49</f>
+        <f t="shared" ref="A74:B74" si="76">A49</f>
         <v>23</v>
       </c>
       <c r="B74" s="5" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Ябжанов Аян Валерьевич</v>
       </c>
       <c r="C74" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>65</v>
       </c>
       <c r="D74" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Зачет</v>
       </c>
     </row>

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C63A6-7350-418B-A18C-FA08F09883E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4E1CC-B17B-4DD0-AEB1-1B2A0A440C9F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:D69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,13 +1237,19 @@
       <c r="I13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2845,7 +2851,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
@@ -2857,7 +2863,7 @@
       </c>
       <c r="M38">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N38">
         <f t="shared" si="28"/>
@@ -2865,7 +2871,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P38">
         <f t="shared" si="28"/>
@@ -2889,7 +2895,7 @@
       </c>
       <c r="U38">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>49.5</v>
       </c>
       <c r="V38">
         <v>7</v>
@@ -2899,7 +2905,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -4172,11 +4178,11 @@
       </c>
       <c r="C63" s="6">
         <f t="shared" si="54"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D63" s="7" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">

--- a/2021/scores/4G02/4G02.XLSX
+++ b/2021/scores/4G02/4G02.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4E1CC-B17B-4DD0-AEB1-1B2A0A440C9F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B6950-E922-41A2-A703-D5EAF803708B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:D63"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,10 +992,16 @@
         <v>41</v>
       </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4">
+        <v>5</v>
+      </c>
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2399,11 +2405,11 @@
       </c>
       <c r="Q33">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R33">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S33">
         <f t="shared" si="18"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="T33">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U33">
         <f t="shared" si="7"/>
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="V33">
         <v>2</v>
@@ -2425,7 +2431,7 @@
       </c>
       <c r="X33">
         <f t="shared" si="8"/>
-        <v>42.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -4088,11 +4094,11 @@
       </c>
       <c r="C58" s="6">
         <f t="shared" si="54"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D58" s="7" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
